--- a/excel_files/filelist_metadata.xlsx
+++ b/excel_files/filelist_metadata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishanuroy/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishanuroy/Desktop/pentaho_projects/pentano_metadata_injection/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="1" r:id="rId1"/>
     <sheet name="target" sheetId="2" r:id="rId2"/>
+    <sheet name="mapping" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>file_name</t>
   </si>
@@ -85,6 +86,24 @@
   </si>
   <si>
     <t>file2_target</t>
+  </si>
+  <si>
+    <t>source column</t>
+  </si>
+  <si>
+    <t>target column</t>
+  </si>
+  <si>
+    <t>emp_id_target</t>
+  </si>
+  <si>
+    <t>emp_name_target</t>
+  </si>
+  <si>
+    <t>order_id_target</t>
+  </si>
+  <si>
+    <t>order_status_target</t>
   </si>
 </sst>
 </file>
@@ -506,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +558,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -556,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -573,7 +592,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -590,7 +609,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -600,6 +619,88 @@
       </c>
       <c r="E5" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>source!B2</f>
+        <v>emp_id</v>
+      </c>
+      <c r="C2" t="str">
+        <f>target!B2</f>
+        <v>emp_id_target</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="str">
+        <f>source!B3</f>
+        <v>emp_name</v>
+      </c>
+      <c r="C3" t="str">
+        <f>target!B3</f>
+        <v>emp_name_target</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <f>source!B4</f>
+        <v>order_id</v>
+      </c>
+      <c r="C4" t="str">
+        <f>target!B4</f>
+        <v>order_id_target</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="str">
+        <f>source!B5</f>
+        <v>order_status</v>
+      </c>
+      <c r="C5" t="str">
+        <f>target!B5</f>
+        <v>order_status_target</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/filelist_metadata.xlsx
+++ b/excel_files/filelist_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>file_name</t>
   </si>
@@ -62,24 +62,6 @@
   </si>
   <si>
     <t>order_status</t>
-  </si>
-  <si>
-    <t>file_separator</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>file_extension</t>
-  </si>
-  <si>
-    <t>csv</t>
   </si>
   <si>
     <t>file1_target</t>
@@ -418,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,7 +413,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,14 +423,8 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -458,14 +434,8 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -475,14 +445,8 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -492,14 +456,8 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -508,12 +466,6 @@
       </c>
       <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +475,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +488,7 @@
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,79 +498,49 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -645,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/excel_files/filelist_metadata.xlsx
+++ b/excel_files/filelist_metadata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>file_name</t>
   </si>
@@ -37,15 +37,6 @@
     <t>file1</t>
   </si>
   <si>
-    <t>file2</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>emp_id</t>
   </si>
   <si>
@@ -58,18 +49,9 @@
     <t>Integer</t>
   </si>
   <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>order_status</t>
-  </si>
-  <si>
     <t>file1_target</t>
   </si>
   <si>
-    <t>file2_target</t>
-  </si>
-  <si>
     <t>source column</t>
   </si>
   <si>
@@ -82,10 +64,19 @@
     <t>emp_name_target</t>
   </si>
   <si>
-    <t>order_id_target</t>
-  </si>
-  <si>
-    <t>order_status_target</t>
+    <t>file_name_target</t>
+  </si>
+  <si>
+    <t>field_name_target</t>
+  </si>
+  <si>
+    <t>field_target_type</t>
+  </si>
+  <si>
+    <t>field_source_type</t>
+  </si>
+  <si>
+    <t>field_name_source</t>
   </si>
 </sst>
 </file>
@@ -400,72 +391,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
+      <c r="F3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -475,10 +474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,73 +486,17 @@
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -582,7 +525,7 @@
         <v>emp_id</v>
       </c>
       <c r="C2" t="str">
-        <f>target!B2</f>
+        <f>source!E2</f>
         <v>emp_id_target</v>
       </c>
     </row>
@@ -595,34 +538,8 @@
         <v>emp_name</v>
       </c>
       <c r="C3" t="str">
-        <f>target!B3</f>
+        <f>source!E3</f>
         <v>emp_name_target</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f>source!B4</f>
-        <v>order_id</v>
-      </c>
-      <c r="C4" t="str">
-        <f>target!B4</f>
-        <v>order_id_target</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="str">
-        <f>source!B5</f>
-        <v>order_status</v>
-      </c>
-      <c r="C5" t="str">
-        <f>target!B5</f>
-        <v>order_status_target</v>
       </c>
     </row>
   </sheetData>
